--- a/Dataset/Folds/Fold_2/Excel/62.xlsx
+++ b/Dataset/Folds/Fold_2/Excel/62.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3657" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4089" uniqueCount="386">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -1181,6 +1181,97 @@
   </si>
   <si>
     <t>[ M.%Dorn%null%1,                            E.%Knick%null%1,                            G.%Lewith%null%1,                          M.%Dorn%null%1,                          E.%Knick%null%1,                          G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,                            Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,                            Andrea%Lourie%NULL%1,                            John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,                            R.%Schoop%NULL%1,                            A.%Suter%NULL%1,                            P.%Klein%NULL%1,                            R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,                            R. A.%Lea%NULL%1,                            S. S.%Wee%NULL%1,                            M. M.%Hanna%NULL%1,                            L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,                            Leena P.%Shah%NULL%1,                            Richard D.%Gilbert%NULL%1,                            Thomas W.%Ritchey%NULL%1,                            Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,                             Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,                             Andrea%Lourie%NULL%1,                             John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,                             R.%Schoop%NULL%1,                             A.%Suter%NULL%1,                             P.%Klein%NULL%1,                             R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,                             R. A.%Lea%NULL%1,                             S. S.%Wee%NULL%1,                             M. M.%Hanna%NULL%1,                             L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,                             Leena P.%Shah%NULL%1,                             Richard D.%Gilbert%NULL%1,                             Thomas W.%Ritchey%NULL%1,                             Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%0, Susan%Hughes%susan.hughes@fresno.ucsf.edu%1, Andrea%Lourie%NULL%1, John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>American College of Allergy, Asthma &amp;amp; Immunology. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Objective.
+ To investigate the safety (risk) and efficacy (benefit) of Echinacea purpurea extract in the prevention of common cold episodes in a large population over a 4-month period.
+ Methods.
+ 755 healthy subjects were allocated to receive either an alcohol extract from freshly harvested E.
+ purpurea (95% herba and 5% root) or placebo.
+ Participants were required to record adverse events and to rate cold-related issues in a diary throughout the investigation period.
+ Nasal secretions were sampled at acute colds and screened for viruses.
+ Results.
+ A total of 293 adverse events occurred with Echinacea and 306 with placebo treatment.
+ Nine and 10% of participants experienced adverse events, which were at least possibly related to the study drug (adverse drug reactions).
+ Thus, the safety of Echinacea was noninferior to placebo.
+ Echinacea reduced the total number of cold episodes, cumulated episode days within the group, and pain-killer medicated episodes.
+ Echinacea inhibited virally confirmed colds and especially prevented enveloped virus infections (P &amp;lt; 0.05).
+ Echinacea showed maximal effects on recurrent infections, and preventive effects increased with therapy compliance and adherence to the protocol.
+ Conclusions.
+ Compliant prophylactic intake of E.
+ purpurea over a 4-month period appeared to provide a positive risk to benefit ratio.
+</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%0, R.%Schoop%NULL%1, A.%Suter%NULL%1, P.%Klein%NULL%1, R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>Hindawi Publishing Corporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Objective.
+ To identify whether a standardised Echinacea formulation is effective in the prevention of respiratory and other symptoms associated with long-haul flights.
+ Methods.
+ 175 adults participated in a randomised, double-blind placebo-controlled trial travelling back from Australia to America, Europe, or Africa for a period of 1–5 weeks on commercial flights via economy class.
+ Participants took Echinacea (root extract, standardised to 4.4 mg alkylamides) or placebo tablets.
+ Participants were surveyed before, immediately after travel, and at 4 weeks after travel regarding upper respiratory symptoms and travel-related quality of life.
+ Results.
+ Respiratory symptoms for both groups increased significantly during travel (P &amp;lt; 0.0005).
+ However, the Echinacea group had borderline significantly lower respiratory symptom scores compared to placebo (P = 0.05) during travel.
+ Conclusions.
+ Supplementation with standardised Echinacea tablets, if taken before and during travel, may have preventive effects against the development of respiratory symptoms during travel involving long-haul flights.
+</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%0, R. A.%Lea%NULL%1, S. S.%Wee%NULL%1, M. M.%Hanna%NULL%1, L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A randomized, double-blind, placebo-controlled clinical trial was conducted to evaluate the ability of Echinacea purpurea to prevent infection with rhinovirus type 39 (RV-39).
+ Forty-eight previously healthy adults received echinacea or placebo, 2.5 mL 3 times per day, for 7 days before and 7 days after intranasal inoculation with RV-39. Symptoms were assessed to evaluate clinical illness.
+ Viral culture and serologic studies were performed to evaluate the presence of rhinovirus infection.
+ A total of 92% of echinacea recipients and 95% of placebo recipients were infected.
+ Colds developed in 58% of echinacea recipients and 82% of placebo recipients (P = .
+114, by Fisher's exact test).
+ Administration of echinacea before and after exposure to rhinovirus did not decrease the rate of infection; however, because of the small sample size, statistical hypothesis testing had relatively poor power to detect statistically significant differences in the frequency and severity of illness.
+</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%0, Leena P.%Shah%NULL%1, Richard D.%Gilbert%NULL%1, Thomas W.%Ritchey%NULL%1, Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>The University of Chicago Press</t>
   </si>
 </sst>
 </file>
@@ -1515,28 +1606,28 @@
         <v>38565.0</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>358</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>289</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -1547,28 +1638,28 @@
         <v>38152.0</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
         <v>77</v>
       </c>
       <c r="J3" t="s">
-        <v>291</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -1579,25 +1670,25 @@
         <v>38018.0</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>359</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
         <v>77</v>
@@ -1611,28 +1702,28 @@
         <v>2001.0</v>
       </c>
       <c r="C5" t="s">
-        <v>258</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>360</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
         <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>294</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1643,28 +1734,28 @@
         <v>37607.0</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
         <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>295</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1675,28 +1766,28 @@
         <v>36739.0</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
         <v>77</v>
       </c>
       <c r="J7" t="s">
-        <v>297</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -1707,25 +1798,25 @@
         <v>36192.0</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>361</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
         <v>77</v>
@@ -1739,28 +1830,28 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
         <v>77</v>
       </c>
       <c r="J9" t="s">
-        <v>300</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -1771,28 +1862,28 @@
         <v>39326.0</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
         <v>77</v>
       </c>
       <c r="J10" t="s">
-        <v>294</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -1809,7 +1900,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
@@ -1821,10 +1912,10 @@
         <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12">
@@ -1838,10 +1929,10 @@
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="E12" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
@@ -1853,10 +1944,10 @@
         <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13">
@@ -1870,10 +1961,10 @@
         <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>381</v>
       </c>
       <c r="E13" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
@@ -1885,10 +1976,10 @@
         <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s">
-        <v>77</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14">
@@ -1899,28 +1990,28 @@
         <v>38561.0</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
         <v>77</v>
       </c>
       <c r="J14" t="s">
-        <v>306</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -1934,10 +2025,10 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>383</v>
       </c>
       <c r="E15" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
@@ -1949,10 +2040,10 @@
         <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16">
@@ -1963,28 +2054,28 @@
         <v>40817.0</v>
       </c>
       <c r="C16" t="s">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>366</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="I16" t="s">
         <v>77</v>
       </c>
       <c r="J16" t="s">
-        <v>309</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -1995,28 +2086,28 @@
         <v>37607.0</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="I17" t="s">
         <v>77</v>
       </c>
       <c r="J17" t="s">
-        <v>295</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -2027,25 +2118,25 @@
         <v>35490.0</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>367</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="I18" t="s">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s">
         <v>77</v>
